--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>Admin</t>
   </si>
@@ -209,59 +209,63 @@
 and size dropdown should be clear</t>
   </si>
   <si>
+    <t>3. click on the compare icon</t>
+  </si>
+  <si>
+    <t>4. verify the Availability</t>
+  </si>
+  <si>
+    <t>Validate that "In stock " should be displayed in Availability column</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify that 'Add to cart' is disabled when choose option dropdown are not selected</t>
+  </si>
+  <si>
+    <t>3. Verify the 'Add to cart' button.</t>
+  </si>
+  <si>
+    <t>Verify that 'Add to cart' is enabled when both choose option dropdown are  selected</t>
+  </si>
+  <si>
+    <t>Validate that the Add to cart button should be enabled</t>
+  </si>
+  <si>
+    <t>Validate that the Add to cart button should be disabled by default</t>
+  </si>
+  <si>
+    <t>Validate that the clear button should be visible</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Validate that Product found on cart page</t>
+  </si>
+  <si>
+    <t>Validate that Product should be found on wishlist page</t>
+  </si>
+  <si>
+    <t>Validate that Product should not be found on wishlist page</t>
+  </si>
+  <si>
+    <t>Validate that Product page should be displayed for the particular product</t>
+  </si>
+  <si>
+    <t>Validate that New Window should open and page title should contain "Facebook"</t>
+  </si>
+  <si>
     <t>Verify that the Availabitlity is In stock in Iframe when clicked
-on the compare button on the product details page</t>
-  </si>
-  <si>
-    <t>3. click on the compare icon</t>
-  </si>
-  <si>
-    <t>4. verify the Availability</t>
-  </si>
-  <si>
-    <t>Validate that "In stock " should be displayed in Availability column</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>Verify that 'Add to cart' is disabled when choose option dropdown are not selected</t>
-  </si>
-  <si>
-    <t>3. Verify the 'Add to cart' button.</t>
-  </si>
-  <si>
-    <t>Verify that 'Add to cart' is enabled when both choose option dropdown are  selected</t>
-  </si>
-  <si>
-    <t>Validate that the Add to cart button should be enabled</t>
-  </si>
-  <si>
-    <t>Validate that the Add to cart button should be disabled by default</t>
-  </si>
-  <si>
-    <t>Validate that the clear button should be visible</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
-    <t>Validate that Product found on cart page</t>
-  </si>
-  <si>
-    <t>Validate that Product should be found on wishlist page</t>
-  </si>
-  <si>
-    <t>Validate that Product should not be found on wishlist page</t>
-  </si>
-  <si>
-    <t>Validate that Product page should be displayed for the particular product</t>
-  </si>
-  <si>
-    <t>Validate that New Window should open and page title should contain "Facebook"</t>
+on the compare button on the product details page.</t>
+  </si>
+  <si>
+    <t>1. User should be registered - 
+credentials available.</t>
   </si>
 </sst>
 </file>
@@ -674,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
@@ -839,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
@@ -892,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
@@ -930,7 +934,7 @@
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -965,7 +969,7 @@
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
@@ -997,7 +1001,7 @@
         <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45">
@@ -1039,10 +1043,10 @@
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
@@ -1059,18 +1063,18 @@
     </row>
     <row r="43" spans="1:6">
       <c r="D43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -1086,21 +1090,21 @@
     </row>
     <row r="46" spans="1:6">
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>17</v>
@@ -1113,15 +1117,15 @@
     </row>
     <row r="49" spans="4:6">
       <c r="D49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
         <v>63</v>
-      </c>
-      <c r="F50" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Admin</t>
   </si>
@@ -266,6 +266,9 @@
   <si>
     <t>1. User should be registered - 
 credentials available.</t>
+  </si>
+  <si>
+    <t>AddtoWishlist</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,7 +692,7 @@
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="75.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -802,6 +805,9 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>Admin</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class name in Automation </t>
   </si>
   <si>
     <t>TC001</t>
@@ -198,17 +195,9 @@
     <t>TC007</t>
   </si>
   <si>
-    <t>Verify that when clicked on clear button both of the choose color 
-and size dropdown should be clear</t>
-  </si>
-  <si>
     <t>5. Click on the Clear button</t>
   </si>
   <si>
-    <t>Validate that the both of the choose color 
-and size dropdown should be clear</t>
-  </si>
-  <si>
     <t>3. click on the compare icon</t>
   </si>
   <si>
@@ -243,9 +232,6 @@
   </si>
   <si>
     <t>TC010</t>
-  </si>
-  <si>
-    <t>Validate that Product found on cart page</t>
   </si>
   <si>
     <t>Validate that Product should be found on wishlist page</t>
@@ -269,6 +255,42 @@
   </si>
   <si>
     <t>AddtoWishlist</t>
+  </si>
+  <si>
+    <t>Share Facebook</t>
+  </si>
+  <si>
+    <t>SelectOptionWishlist</t>
+  </si>
+  <si>
+    <t>RemoveFromWishlist</t>
+  </si>
+  <si>
+    <t>ClearButtonvisible</t>
+  </si>
+  <si>
+    <t>classes Under 
+Shoptestcases package in eclipse</t>
+  </si>
+  <si>
+    <t>Verify that when clicked on clear button,  both of the choose color 
+and size dropdown should be unselected</t>
+  </si>
+  <si>
+    <t>Validate that the both of the choose color 
+and size dropdown should be unselected</t>
+  </si>
+  <si>
+    <t>ClearButton</t>
+  </si>
+  <si>
+    <t>CompareProductIframe</t>
+  </si>
+  <si>
+    <t>Not created yet</t>
+  </si>
+  <si>
+    <t>Validate Product found on cart page</t>
   </si>
 </sst>
 </file>
@@ -317,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,6 +350,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,465 +712,603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="68.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="68.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="3"/>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3"/>
-      <c r="D4" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3"/>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3"/>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3"/>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="3"/>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="3"/>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="3"/>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="3"/>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="3"/>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="3"/>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="3"/>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="3"/>
-      <c r="D16" t="s">
+      <c r="B32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45">
+      <c r="A41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45">
+      <c r="A44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="4"/>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="4"/>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="4"/>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="4"/>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D47" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="3"/>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="3"/>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="45">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="E48" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="E49" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="D40" t="s">
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="E50" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="24">
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -345,20 +345,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -713,7 +713,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,7 +729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -752,13 +752,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -769,17 +769,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -788,9 +788,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="E5" t="s">
         <v>18</v>
       </c>
@@ -799,9 +799,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -810,9 +810,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="E7" t="s">
         <v>20</v>
       </c>
@@ -821,17 +821,17 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="E9" t="s">
         <v>22</v>
       </c>
@@ -840,13 +840,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -857,49 +857,49 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="E12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="E15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -911,13 +911,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -928,9 +928,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>36</v>
       </c>
@@ -939,9 +939,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
       <c r="E19" t="s">
         <v>38</v>
       </c>
@@ -950,25 +950,25 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -977,13 +977,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -994,9 +994,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -1005,9 +1005,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="E25" t="s">
         <v>45</v>
       </c>
@@ -1016,9 +1016,9 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="E26" t="s">
         <v>46</v>
       </c>
@@ -1027,15 +1027,15 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1049,8 +1049,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="E29" t="s">
         <v>49</v>
       </c>
@@ -1059,15 +1059,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="E31" t="s">
         <v>51</v>
       </c>
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
@@ -1093,8 +1093,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="E33" t="s">
         <v>49</v>
       </c>
@@ -1103,15 +1103,15 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="E34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="E35" t="s">
         <v>55</v>
       </c>
@@ -1120,10 +1120,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1137,8 +1137,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="E37" t="s">
         <v>49</v>
       </c>
@@ -1147,22 +1147,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="E38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="E39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="E40" t="s">
         <v>57</v>
       </c>
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
@@ -1189,15 +1189,15 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="E42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="E43" t="s">
         <v>64</v>
       </c>
@@ -1206,10 +1206,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="45">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
@@ -1223,15 +1223,15 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="E45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="E46" t="s">
         <v>64</v>
       </c>
@@ -1240,10 +1240,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="45">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1257,8 +1257,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="E48" t="s">
         <v>49</v>
       </c>
@@ -1267,15 +1267,15 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="E49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="E50" t="s">
         <v>59</v>
       </c>
@@ -1285,6 +1285,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A44:A46"/>
@@ -1301,14 +1309,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -349,9 +349,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,13 +752,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -769,17 +769,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -788,9 +788,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
       <c r="E5" t="s">
         <v>18</v>
       </c>
@@ -799,9 +799,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -810,9 +810,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
       <c r="E7" t="s">
         <v>20</v>
       </c>
@@ -821,17 +821,17 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
       <c r="E9" t="s">
         <v>22</v>
       </c>
@@ -840,13 +840,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -857,49 +857,49 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
       <c r="E12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
       <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
       <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
       <c r="E15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -911,13 +911,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -928,9 +928,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>36</v>
       </c>
@@ -939,9 +939,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
       <c r="E19" t="s">
         <v>38</v>
       </c>
@@ -950,25 +950,25 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -977,13 +977,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -994,9 +994,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4"/>
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -1005,9 +1005,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
       <c r="E25" t="s">
         <v>45</v>
       </c>
@@ -1016,9 +1016,9 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4"/>
       <c r="E26" t="s">
         <v>46</v>
       </c>
@@ -1027,15 +1027,15 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1049,8 +1049,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="E29" t="s">
         <v>49</v>
       </c>
@@ -1059,15 +1059,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="E31" t="s">
         <v>51</v>
       </c>
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
@@ -1093,8 +1093,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="E33" t="s">
         <v>49</v>
       </c>
@@ -1103,15 +1103,15 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="E34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="E35" t="s">
         <v>55</v>
       </c>
@@ -1120,10 +1120,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1137,8 +1137,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="E37" t="s">
         <v>49</v>
       </c>
@@ -1147,22 +1147,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="E38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="E39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="E40" t="s">
         <v>57</v>
       </c>
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
@@ -1189,15 +1189,15 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="E42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="E43" t="s">
         <v>64</v>
       </c>
@@ -1206,10 +1206,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="45">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
@@ -1223,15 +1223,15 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="E45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="E46" t="s">
         <v>64</v>
       </c>
@@ -1240,10 +1240,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1257,8 +1257,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="E48" t="s">
         <v>49</v>
       </c>
@@ -1267,15 +1267,15 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="E49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="E50" t="s">
         <v>59</v>
       </c>
@@ -1285,14 +1285,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A44:A46"/>
@@ -1309,6 +1301,14 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HybridFramework/DataFiles/CRMData.xlsx
+++ b/HybridFramework/DataFiles/CRMData.xlsx
@@ -349,6 +349,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,9 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,13 +752,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -769,17 +769,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -788,9 +788,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="E5" t="s">
         <v>18</v>
       </c>
@@ -799,9 +799,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -810,9 +810,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="E7" t="s">
         <v>20</v>
       </c>
@@ -821,17 +821,17 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="E9" t="s">
         <v>22</v>
       </c>
@@ -840,13 +840,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -857,49 +857,49 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="E12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="E15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -911,13 +911,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -928,9 +928,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>36</v>
       </c>
@@ -939,9 +939,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
       <c r="E19" t="s">
         <v>38</v>
       </c>
@@ -950,25 +950,25 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -977,13 +977,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -994,9 +994,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -1005,9 +1005,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="E25" t="s">
         <v>45</v>
       </c>
@@ -1016,9 +1016,9 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="E26" t="s">
         <v>46</v>
       </c>
@@ -1027,15 +1027,15 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1049,8 +1049,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="E29" t="s">
         <v>49</v>
       </c>
@@ -1059,15 +1059,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="E31" t="s">
         <v>51</v>
       </c>
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
@@ -1093,8 +1093,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="E33" t="s">
         <v>49</v>
       </c>
@@ -1103,15 +1103,15 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="E34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="E35" t="s">
         <v>55</v>
       </c>
@@ -1120,10 +1120,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1137,8 +1137,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="E37" t="s">
         <v>49</v>
       </c>
@@ -1147,22 +1147,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="E38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="E39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="E40" t="s">
         <v>57</v>
       </c>
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
@@ -1189,15 +1189,15 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="E42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="E43" t="s">
         <v>64</v>
       </c>
@@ -1206,10 +1206,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="45">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
@@ -1223,15 +1223,15 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="E45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="E46" t="s">
         <v>64</v>
       </c>
@@ -1240,10 +1240,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="45">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1257,8 +1257,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="E48" t="s">
         <v>49</v>
       </c>
@@ -1267,15 +1267,15 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="E49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="E50" t="s">
         <v>59</v>
       </c>
@@ -1285,6 +1285,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A44:A46"/>
@@ -1301,14 +1309,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
